--- a/biology/Zoologie/Bassette_(poule)/Bassette_(poule).xlsx
+++ b/biology/Zoologie/Bassette_(poule)/Bassette_(poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bassette est une race de poule pondeuse demi-naine belge parfois nommée Bassette liégeoise par le passé, La dernière mise à jour de son standard date de 2006.
@@ -512,15 +524,52 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une volaille demi-naine, bonne pondeuse de type fermier européen « classique », d'apparence plus ou moins basse sur pattes, possédant tous les attributs d'une bonne pondeuse : la queue est bien développée et le bassin est large et porté bas. L'allure est vive, mais de caractère docile et agréable.
 La croissance des jeunes est rapide et les poules matures produisent 120 à 200 œufs par an d'environ de 42 à 48 grammes à coquille blanche.
 La particularité de cette race c'est qu'elle consomme 2/3 de moins de nourriture qu'une poule de grande race et pond des œufs d'un poids seulement d'1/3 de moins, donc très avantageuse, c'est la poule familiale « sans soucis ».
 En plus de ses qualités productives, c'est une race qui est homologuée en de nombreux coloris très attrayants, dont la fameuse couleur nationale belge, la couleur caille qui est la plus répandue à l'heure actuelle, en Belgique et en France. La couleur principale d'origine était la fauve à queue noire, mais celle-ci est actuellement rare dans son pays d'origine et absente en France.
 La bassette est une race rustique qui s'élève aussi bien en liberté qu'en parquet restreint. Le taux de fécondité est excellent et les poussins s'élèvent sans problèmes et sont beaucoup plus résistant que la plupart des autres races naines.
-Étude de rendement
-Race pondeuse et demi-naine, donc rendement faible en chair...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bassette_(poule)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bassette_(poule)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étude de rendement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Race pondeuse et demi-naine, donc rendement faible en chair...
 En 1996, dans un souci de relancer des races indigènes anciennes dans le circuit économique, l’Office de Promotion du Petit Élevage Wallon fait effectuer une étude pour la production de bassettes « poulet de chair ». Ce fut un échec, d'autant plus que développer une race de chair avec une race naine est un handicap de départ.
 points négatifs : Par rapport aux poulets de rendement traditionnel comme le « JA » (croisement F1 industriel), il y avait une plus grande consommation d’aliments, un rendement médiocre à l’abattage et un faible poids des carcasses.
 points positifs : Cependant, un élément positif et non des moindres fut constaté : la rusticité. Le taux de mortalité fut excessivement faible, voire nul.
@@ -529,31 +578,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bassette_(poule)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bassette_(poule)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Belgique, c'est à la fin du XIXe siècle que des poules naines sans standard des provinces du Brabant et de Liège, étaient nommés bassettes, elles commencèrent à être élevées dans la région de Bruxelles.
 En 1914, à cause des restrictions amenées par la guerre, son engouement alla encore en augmentant et c’est ainsi que William Collier de Bruxelles commença sa sélection pour en faire une race stable, en recherchant avant tout à améliorer encore ses qualités utilitaires. La sélection s’orienta vers une volaille plus grande, plus volumineuse et plus massive pour aboutir à une race de taille intermédiaire entre les naines et les races de grande taille.
@@ -563,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bassette_(poule)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bassette_(poule)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Standard officiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Masse idéale : Coq :  1 kg ; Poule :  900 g.
 Crête : simple
